--- a/CatchTheLightV2.xlsx
+++ b/CatchTheLightV2.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bacon\Documents\GitHub\ECE388_CatchTheLightV2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\ECE388_CatchTheLightV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EA39D1-FA76-4950-9E93-CFF468CA9951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B90FE7-7390-4F5A-97A3-FD7F9A146F1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!$A$1:$J$14</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!$A$1:$J$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="103">
   <si>
     <t>Qty</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -183,9 +180,6 @@
     <t>J1</t>
   </si>
   <si>
-    <t>CABLE ADAPTER 6 POS</t>
-  </si>
-  <si>
     <t>Tolerance</t>
   </si>
   <si>
@@ -318,9 +312,6 @@
     <t>https://www.aliexpress.com/item/1005001508410289.html?spm=a2g0o.productlist.0.0.43ca290dmQJGn9&amp;s=p&amp;ad_pvid=202010011511551186862986940820013865820_6&amp;algo_pvid=adaa03cd-23d7-47d1-86f4-bc273e884c2c&amp;algo_expid=adaa03cd-23d7-47d1-86f4-bc273e884c2c-5&amp;btsid=0bb0623a16015903150761393e4635&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_</t>
   </si>
   <si>
-    <t>Column2</t>
-  </si>
-  <si>
     <t>4-pin Momentary Push Button, SPDT</t>
   </si>
   <si>
@@ -328,13 +319,40 @@
   </si>
   <si>
     <t>SPDT Slide Switch, Right Angle</t>
+  </si>
+  <si>
+    <t>PROGRAMMING CABLE ADAPTER 6 POS</t>
+  </si>
+  <si>
+    <t>C72037</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_0805-Red-LED-Iv-61mcd-Typ-atIF-20mA_C72037.html</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_0805-Green_C73546.html</t>
+  </si>
+  <si>
+    <t>C73546</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Tactile-Switches_XKB-Connectivity-TS-1102S-C-A-B_C381038.html</t>
+  </si>
+  <si>
+    <t>C381038</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Toggle-Switches_XKB-Connectivity-SK-3296S-01-L1_C319020.html</t>
+  </si>
+  <si>
+    <t>C319020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,6 +365,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -366,25 +398,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -451,8 +482,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{1D8BF6FE-4E5E-4897-9E16-0BB9DAEB675F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="21" unboundColumnsRight="10">
-    <queryTableFields count="20">
+  <queryTableRefresh nextId="21" unboundColumnsRight="8">
+    <queryTableFields count="18">
       <queryTableField id="1" name="Qty" tableColumnId="1"/>
       <queryTableField id="2" name="Value" tableColumnId="2"/>
       <queryTableField id="3" name="Device" tableColumnId="3"/>
@@ -471,37 +502,33 @@
       <queryTableField id="16" dataBound="0" tableColumnId="17"/>
       <queryTableField id="17" dataBound="0" tableColumnId="18"/>
       <queryTableField id="18" dataBound="0" tableColumnId="19"/>
-      <queryTableField id="19" dataBound="0" tableColumnId="20"/>
-      <queryTableField id="20" dataBound="0" tableColumnId="21"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ADEF13A2-45E5-4184-BD73-5270E58180FA}" name="CatchTheLightV2_New" displayName="CatchTheLightV2_New" ref="A1:T14" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:T14" xr:uid="{FFFF1BF6-AFC3-4BDC-96ED-5C53CB19BE6A}"/>
-  <tableColumns count="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ADEF13A2-45E5-4184-BD73-5270E58180FA}" name="CatchTheLightV2_New" displayName="CatchTheLightV2_New" ref="A1:R14" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:R14" xr:uid="{FFFF1BF6-AFC3-4BDC-96ED-5C53CB19BE6A}"/>
+  <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{2F60160E-A884-46AC-8F91-EBCA2315941F}" uniqueName="1" name="Qty" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{C46746A2-B397-4E0C-A858-13621A15BB50}" uniqueName="2" name="Value" queryTableFieldId="2" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{41A56138-FF5A-4BA9-BB7B-FCDCF46D1F27}" uniqueName="3" name="Device" queryTableFieldId="3" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{5E0813FD-E275-4997-9D0B-C9FE32ABC38F}" uniqueName="4" name="Package" queryTableFieldId="4" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{BB191848-9E50-4F8B-B2EB-1BC2EA76A371}" uniqueName="10" name="Tolerance" queryTableFieldId="10" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{658439A0-CD3C-422E-80D7-E2D5BB31B087}" uniqueName="9" name="Rating" queryTableFieldId="9" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{2544E949-40D2-49E8-83C6-CD49425F909F}" uniqueName="5" name="Parts" queryTableFieldId="5" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{287C7190-EC67-46DF-BD3D-E58B25A55B40}" uniqueName="6" name="Description" queryTableFieldId="6" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{B0D4CBCD-0C38-4307-8DEC-407A3669449E}" uniqueName="7" name="LCSC Price 1" queryTableFieldId="7" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{8A338B2A-AAC3-4504-B169-A095B6BA272E}" uniqueName="8" name="LCSC Price 10" queryTableFieldId="8" dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{AAA5880B-6994-4927-8E8E-090C9DD68195}" uniqueName="12" name="LCSC Price 100" queryTableFieldId="12" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{A313FF76-E0EC-4645-8940-52928A39977D}" uniqueName="11" name="LCSC Price 1000" queryTableFieldId="11" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{63B27622-3FDB-46E2-8C91-B03BACFB2F09}" uniqueName="13" name="LCSC PN" queryTableFieldId="13" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{6400C8FD-C6C1-40DF-8574-D862EA25484C}" uniqueName="14" name="LCSC Link" queryTableFieldId="14" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{178BE406-90CD-4A6E-BDFE-EF89C839689A}" uniqueName="16" name="Digikey Price 1" queryTableFieldId="15" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{D1FCF70A-B1CE-4514-9FF9-227A9199049B}" uniqueName="17" name="Digikey Link" queryTableFieldId="16" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{E215905D-BDDE-4349-9400-C954271513AF}" uniqueName="18" name="Alt Supplier" queryTableFieldId="17" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{4F27A081-21FC-4FEB-8638-6C4695E1022F}" uniqueName="19" name="Alt Supplier Link" queryTableFieldId="18" dataDxfId="2"/>
-    <tableColumn id="20" xr3:uid="{0181807A-F857-4EE9-8BD0-297AA0AACD39}" uniqueName="20" name="Column1" queryTableFieldId="19" dataDxfId="1"/>
-    <tableColumn id="21" xr3:uid="{66667761-6B3D-4704-912B-4317C6D1058C}" uniqueName="21" name="Column2" queryTableFieldId="20" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{C46746A2-B397-4E0C-A858-13621A15BB50}" uniqueName="2" name="Value" queryTableFieldId="2" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{41A56138-FF5A-4BA9-BB7B-FCDCF46D1F27}" uniqueName="3" name="Device" queryTableFieldId="3" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{5E0813FD-E275-4997-9D0B-C9FE32ABC38F}" uniqueName="4" name="Package" queryTableFieldId="4" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{BB191848-9E50-4F8B-B2EB-1BC2EA76A371}" uniqueName="10" name="Tolerance" queryTableFieldId="10" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{658439A0-CD3C-422E-80D7-E2D5BB31B087}" uniqueName="9" name="Rating" queryTableFieldId="9" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{2544E949-40D2-49E8-83C6-CD49425F909F}" uniqueName="5" name="Parts" queryTableFieldId="5" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{287C7190-EC67-46DF-BD3D-E58B25A55B40}" uniqueName="6" name="Description" queryTableFieldId="6" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{B0D4CBCD-0C38-4307-8DEC-407A3669449E}" uniqueName="7" name="LCSC Price 1" queryTableFieldId="7" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{8A338B2A-AAC3-4504-B169-A095B6BA272E}" uniqueName="8" name="LCSC Price 10" queryTableFieldId="8" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{AAA5880B-6994-4927-8E8E-090C9DD68195}" uniqueName="12" name="LCSC Price 100" queryTableFieldId="12" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{A313FF76-E0EC-4645-8940-52928A39977D}" uniqueName="11" name="LCSC Price 1000" queryTableFieldId="11" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{63B27622-3FDB-46E2-8C91-B03BACFB2F09}" uniqueName="13" name="LCSC PN" queryTableFieldId="13" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{6400C8FD-C6C1-40DF-8574-D862EA25484C}" uniqueName="14" name="LCSC Link" queryTableFieldId="14" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{178BE406-90CD-4A6E-BDFE-EF89C839689A}" uniqueName="16" name="Digikey Price 1" queryTableFieldId="15" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{D1FCF70A-B1CE-4514-9FF9-227A9199049B}" uniqueName="17" name="Digikey Link" queryTableFieldId="16" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{E215905D-BDDE-4349-9400-C954271513AF}" uniqueName="18" name="Alt Supplier" queryTableFieldId="17" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{4F27A081-21FC-4FEB-8638-6C4695E1022F}" uniqueName="19" name="Alt Supplier Link" queryTableFieldId="18" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -770,35 +797,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B71F7FE-3F57-4414-A304-E882D02B622A}">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" customWidth="1"/>
-    <col min="7" max="7" width="47.54296875" customWidth="1"/>
-    <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="9" width="15.90625" customWidth="1"/>
-    <col min="10" max="10" width="17.1796875" customWidth="1"/>
-    <col min="11" max="11" width="20.90625" customWidth="1"/>
-    <col min="12" max="12" width="20.26953125" customWidth="1"/>
-    <col min="13" max="13" width="11.54296875" customWidth="1"/>
-    <col min="14" max="14" width="12.6328125" customWidth="1"/>
-    <col min="15" max="15" width="17.6328125" customWidth="1"/>
-    <col min="16" max="16" width="13.81640625" customWidth="1"/>
-    <col min="17" max="17" width="13.7265625" customWidth="1"/>
-    <col min="18" max="18" width="17.81640625" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="47.5703125" customWidth="1"/>
+    <col min="8" max="8" width="37.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -812,10 +839,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -824,177 +851,190 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
         <v>51</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>52</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>53</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>54</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>55</v>
       </c>
-      <c r="N1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1" t="s">
-        <v>57</v>
-      </c>
       <c r="P1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R1" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" t="s">
-        <v>61</v>
-      </c>
-      <c r="R1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.125</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>7.4200000000000004E-4</v>
+      </c>
+      <c r="L2">
+        <v>5.4100000000000003E-4</v>
+      </c>
+      <c r="M2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.125</v>
+      </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>9.5200000000000005E-4</v>
+      </c>
+      <c r="L3" s="5">
+        <v>6.5499999999999998E-4</v>
+      </c>
+      <c r="M3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2">
         <v>0.05</v>
       </c>
-      <c r="F4" s="3">
-        <v>0.125</v>
-      </c>
+      <c r="F4" s="3"/>
       <c r="G4" s="1" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="J4" s="5">
+        <v>8.1930000000000006E-3</v>
       </c>
       <c r="K4">
-        <v>7.4200000000000004E-4</v>
+        <v>5.9569999999999996E-3</v>
+      </c>
+      <c r="L4" s="5">
+        <v>5.5459999999999997E-3</v>
       </c>
       <c r="M4" t="s">
-        <v>65</v>
-      </c>
-      <c r="N4" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E5" s="2">
         <v>0.05</v>
@@ -1003,342 +1043,331 @@
         <v>0.125</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K5">
-        <v>9.5200000000000005E-4</v>
+        <v>1.5E-3</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1.1130000000000001E-3</v>
       </c>
       <c r="M5" t="s">
-        <v>68</v>
-      </c>
-      <c r="N5" t="s">
-        <v>69</v>
+        <v>78</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="F6" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6">
-        <v>5.9569999999999996E-3</v>
-      </c>
-      <c r="M6" t="s">
-        <v>70</v>
-      </c>
-      <c r="N6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6">
+        <v>1.33</v>
+      </c>
+      <c r="P6" t="s">
+        <v>80</v>
+      </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.125</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7">
-        <v>1.5E-3</v>
-      </c>
-      <c r="M7" t="s">
-        <v>80</v>
-      </c>
-      <c r="N7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="P7" t="s">
         <v>81</v>
       </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8">
-        <v>1.33</v>
-      </c>
-      <c r="P8" t="s">
-        <v>82</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="J8" s="5">
+        <v>6.2285E-2</v>
+      </c>
+      <c r="K8" s="5">
+        <v>4.6420000000000003E-2</v>
+      </c>
+      <c r="L8" s="5">
+        <v>4.0591000000000002E-2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="P9" t="s">
-        <v>83</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1.2612E-2</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1.051E-2</v>
+      </c>
+      <c r="L9" s="5">
+        <v>9.417E-3</v>
+      </c>
+      <c r="M9" t="s">
+        <v>95</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10">
-        <v>0.02</v>
-      </c>
-      <c r="M10" t="s">
-        <v>84</v>
-      </c>
-      <c r="N10" t="s">
-        <v>85</v>
-      </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.1162</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>24</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11">
-        <v>1.4999999999999999E-2</v>
+        <v>6</v>
+      </c>
+      <c r="J11" s="5">
+        <v>4.4630999999999997E-2</v>
+      </c>
+      <c r="K11" s="5">
+        <v>3.2968999999999998E-2</v>
+      </c>
+      <c r="L11" s="5">
+        <v>2.8684999999999999E-2</v>
       </c>
       <c r="M11" t="s">
-        <v>87</v>
-      </c>
-      <c r="N11" t="s">
-        <v>85</v>
+        <v>102</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Q12" s="1">
-        <v>0.1162</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="I12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1.8395999999999999E-2</v>
+      </c>
+      <c r="K12" s="5">
+        <v>1.3587E-2</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1.1821E-2</v>
+      </c>
+      <c r="M12" t="s">
+        <v>100</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1348,35 +1377,33 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1386,377 +1413,41 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" t="s">
-        <v>51</v>
-      </c>
-      <c r="J19" t="s">
-        <v>52</v>
-      </c>
-      <c r="K19" t="s">
-        <v>53</v>
-      </c>
-      <c r="L19" t="s">
-        <v>54</v>
-      </c>
-      <c r="M19" t="s">
-        <v>55</v>
-      </c>
-      <c r="N19" t="s">
-        <v>56</v>
-      </c>
-      <c r="O19" t="s">
-        <v>57</v>
-      </c>
-      <c r="P19" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>59</v>
-      </c>
-      <c r="R19" t="s">
-        <v>60</v>
-      </c>
-      <c r="S19" t="s">
-        <v>61</v>
-      </c>
-      <c r="T19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="F20" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="F21" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="G22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>220</v>
-      </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="F23" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" t="s">
-        <v>72</v>
-      </c>
-      <c r="H23" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23">
-        <v>2.8E-3</v>
-      </c>
-      <c r="M23" t="s">
-        <v>73</v>
-      </c>
-      <c r="N23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="F24" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" t="s">
-        <v>76</v>
-      </c>
-      <c r="H24" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24">
-        <v>1.5E-3</v>
-      </c>
-      <c r="M24" t="s">
-        <v>77</v>
-      </c>
-      <c r="N24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25">
-        <v>330</v>
-      </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="F25" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" t="s">
-        <v>79</v>
-      </c>
-      <c r="H25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q26">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="R26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q27">
-        <v>0.24</v>
-      </c>
-      <c r="R27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28" t="s">
-        <v>38</v>
-      </c>
-      <c r="K28">
-        <v>0.02</v>
-      </c>
-      <c r="M28" t="s">
-        <v>84</v>
-      </c>
-      <c r="N28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" t="s">
-        <v>86</v>
-      </c>
-      <c r="H29" t="s">
-        <v>38</v>
-      </c>
-      <c r="K29">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="M29" t="s">
-        <v>87</v>
-      </c>
-      <c r="N29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" t="s">
-        <v>90</v>
-      </c>
-      <c r="H30" t="s">
-        <v>91</v>
-      </c>
-      <c r="S30">
-        <v>0.1162</v>
-      </c>
-      <c r="T30" t="s">
-        <v>92</v>
-      </c>
+    </row>
+    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="24" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="N25" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{14873FD9-CDD6-4B09-9CA2-69B69756079A}"/>
+    <hyperlink ref="N3" r:id="rId2" xr:uid="{A28805F5-5B9C-463A-811B-D6E011DFA96B}"/>
+    <hyperlink ref="N4" r:id="rId3" xr:uid="{735DFC04-AE94-4A07-BEEE-CDFDAE8357EA}"/>
+    <hyperlink ref="N5" r:id="rId4" xr:uid="{F1CE8245-B408-44C6-9411-790B1F0CF912}"/>
+    <hyperlink ref="N8" r:id="rId5" xr:uid="{2BED6A16-84C1-4D0A-B9C0-17C80D7B3182}"/>
+    <hyperlink ref="N9" r:id="rId6" xr:uid="{5EC48A32-958B-4EB4-903E-197000A33F81}"/>
+    <hyperlink ref="N12" r:id="rId7" xr:uid="{0F9A2C40-7734-4C37-A2B0-E41B97D416B5}"/>
+    <hyperlink ref="N11" r:id="rId8" xr:uid="{FFC3D78F-0C4A-42C3-A9FC-F15E022A4B55}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1769,9 +1460,9 @@
       <selection sqref="A1:U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1785,10 +1476,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1797,43 +1488,43 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
         <v>51</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>52</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>53</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>54</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>55</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>56</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>57</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>59</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>60</v>
       </c>
-      <c r="S1" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1841,101 +1532,101 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
       </c>
       <c r="E2" s="2">
         <v>0.01</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2">
         <v>7.4200000000000004E-4</v>
       </c>
       <c r="M2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
       </c>
       <c r="E3" s="2">
         <v>0.01</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3">
         <v>9.5200000000000005E-4</v>
       </c>
       <c r="M3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4" s="2">
         <v>0.01</v>
       </c>
       <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
         <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
       </c>
       <c r="K4">
         <v>5.9569999999999996E-3</v>
       </c>
       <c r="M4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1943,69 +1634,69 @@
         <v>220</v>
       </c>
       <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
       </c>
       <c r="E5" s="2">
         <v>0.01</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5">
         <v>2.8E-3</v>
       </c>
       <c r="M5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
       </c>
       <c r="E6" s="2">
         <v>0.01</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6">
         <v>1.5E-3</v>
       </c>
       <c r="M6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2013,48 +1704,48 @@
         <v>330</v>
       </c>
       <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
         <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
       </c>
       <c r="E7" s="2">
         <v>0.01</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7">
         <v>1.5E-3</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
         <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
       </c>
       <c r="O8">
         <v>1.33</v>
@@ -2063,27 +1754,27 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="R8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="G9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>32</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
       </c>
       <c r="O9">
         <v>0.28999999999999998</v>
@@ -2092,88 +1783,88 @@
         <v>0.24</v>
       </c>
       <c r="R9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
         <v>40</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
         <v>41</v>
       </c>
-      <c r="G10" t="s">
-        <v>42</v>
-      </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K10">
         <v>0.02</v>
       </c>
       <c r="M10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
       <c r="G11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K11">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="M11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" t="s">
         <v>88</v>
       </c>
-      <c r="C12" t="s">
+      <c r="H12" t="s">
         <v>89</v>
-      </c>
-      <c r="D12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" t="s">
-        <v>91</v>
       </c>
       <c r="S12">
         <v>0.1162</v>
       </c>
       <c r="T12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/CatchTheLightV2.xlsx
+++ b/CatchTheLightV2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\ECE388_CatchTheLightV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B90FE7-7390-4F5A-97A3-FD7F9A146F1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{2044A8AB-4FA8-4348-AFED-FA4FE04EFD10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,10 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!$A$1:$J$12</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!$A$1:$J$11</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="105">
   <si>
     <t>Qty</t>
   </si>
@@ -346,6 +347,12 @@
   </si>
   <si>
     <t>C319020</t>
+  </si>
+  <si>
+    <t>RK-2032</t>
+  </si>
+  <si>
+    <t>U$3</t>
   </si>
 </sst>
 </file>
@@ -415,59 +422,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -478,60 +433,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{1D8BF6FE-4E5E-4897-9E16-0BB9DAEB675F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="21" unboundColumnsRight="8">
-    <queryTableFields count="18">
-      <queryTableField id="1" name="Qty" tableColumnId="1"/>
-      <queryTableField id="2" name="Value" tableColumnId="2"/>
-      <queryTableField id="3" name="Device" tableColumnId="3"/>
-      <queryTableField id="4" name="Package" tableColumnId="4"/>
-      <queryTableField id="10" dataBound="0" tableColumnId="10"/>
-      <queryTableField id="9" dataBound="0" tableColumnId="9"/>
-      <queryTableField id="5" name="Parts" tableColumnId="5"/>
-      <queryTableField id="6" name="Description" tableColumnId="6"/>
-      <queryTableField id="7" name="Column1" tableColumnId="7"/>
-      <queryTableField id="8" name="_1" tableColumnId="8"/>
-      <queryTableField id="12" dataBound="0" tableColumnId="12"/>
-      <queryTableField id="11" dataBound="0" tableColumnId="11"/>
-      <queryTableField id="13" dataBound="0" tableColumnId="13"/>
-      <queryTableField id="14" dataBound="0" tableColumnId="14"/>
-      <queryTableField id="15" dataBound="0" tableColumnId="16"/>
-      <queryTableField id="16" dataBound="0" tableColumnId="17"/>
-      <queryTableField id="17" dataBound="0" tableColumnId="18"/>
-      <queryTableField id="18" dataBound="0" tableColumnId="19"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ADEF13A2-45E5-4184-BD73-5270E58180FA}" name="CatchTheLightV2_New" displayName="CatchTheLightV2_New" ref="A1:R14" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:R14" xr:uid="{FFFF1BF6-AFC3-4BDC-96ED-5C53CB19BE6A}"/>
-  <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{2F60160E-A884-46AC-8F91-EBCA2315941F}" uniqueName="1" name="Qty" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{C46746A2-B397-4E0C-A858-13621A15BB50}" uniqueName="2" name="Value" queryTableFieldId="2" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{41A56138-FF5A-4BA9-BB7B-FCDCF46D1F27}" uniqueName="3" name="Device" queryTableFieldId="3" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{5E0813FD-E275-4997-9D0B-C9FE32ABC38F}" uniqueName="4" name="Package" queryTableFieldId="4" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{BB191848-9E50-4F8B-B2EB-1BC2EA76A371}" uniqueName="10" name="Tolerance" queryTableFieldId="10" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{658439A0-CD3C-422E-80D7-E2D5BB31B087}" uniqueName="9" name="Rating" queryTableFieldId="9" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{2544E949-40D2-49E8-83C6-CD49425F909F}" uniqueName="5" name="Parts" queryTableFieldId="5" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{287C7190-EC67-46DF-BD3D-E58B25A55B40}" uniqueName="6" name="Description" queryTableFieldId="6" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{B0D4CBCD-0C38-4307-8DEC-407A3669449E}" uniqueName="7" name="LCSC Price 1" queryTableFieldId="7" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{8A338B2A-AAC3-4504-B169-A095B6BA272E}" uniqueName="8" name="LCSC Price 10" queryTableFieldId="8" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{AAA5880B-6994-4927-8E8E-090C9DD68195}" uniqueName="12" name="LCSC Price 100" queryTableFieldId="12" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{A313FF76-E0EC-4645-8940-52928A39977D}" uniqueName="11" name="LCSC Price 1000" queryTableFieldId="11" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{63B27622-3FDB-46E2-8C91-B03BACFB2F09}" uniqueName="13" name="LCSC PN" queryTableFieldId="13" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{6400C8FD-C6C1-40DF-8574-D862EA25484C}" uniqueName="14" name="LCSC Link" queryTableFieldId="14" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{178BE406-90CD-4A6E-BDFE-EF89C839689A}" uniqueName="16" name="Digikey Price 1" queryTableFieldId="15" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{D1FCF70A-B1CE-4514-9FF9-227A9199049B}" uniqueName="17" name="Digikey Link" queryTableFieldId="16" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{E215905D-BDDE-4349-9400-C954271513AF}" uniqueName="18" name="Alt Supplier" queryTableFieldId="17" dataDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{4F27A081-21FC-4FEB-8638-6C4695E1022F}" uniqueName="19" name="Alt Supplier Link" queryTableFieldId="18" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -800,7 +701,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,57 +1014,63 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="P7" t="s">
-        <v>81</v>
-      </c>
+      <c r="J7" s="5">
+        <v>6.2285E-2</v>
+      </c>
+      <c r="K7" s="5">
+        <v>4.6420000000000003E-2</v>
+      </c>
+      <c r="L7" s="5">
+        <v>4.0591000000000002E-2</v>
+      </c>
+      <c r="M7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>37</v>
@@ -1172,19 +1079,19 @@
         <v>6</v>
       </c>
       <c r="J8" s="5">
-        <v>6.2285E-2</v>
+        <v>1.2612E-2</v>
       </c>
       <c r="K8" s="5">
-        <v>4.6420000000000003E-2</v>
+        <v>1.051E-2</v>
       </c>
       <c r="L8" s="5">
-        <v>4.0591000000000002E-2</v>
+        <v>9.417E-3</v>
       </c>
       <c r="M8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -1193,107 +1100,107 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="5">
-        <v>1.2612E-2</v>
-      </c>
-      <c r="K9" s="5">
-        <v>1.051E-2</v>
-      </c>
-      <c r="L9" s="5">
-        <v>9.417E-3</v>
-      </c>
-      <c r="M9" t="s">
-        <v>95</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.1162</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>0.1162</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="5">
+        <v>4.4630999999999997E-2</v>
+      </c>
+      <c r="K10" s="5">
+        <v>3.2968999999999998E-2</v>
+      </c>
+      <c r="L10" s="5">
+        <v>2.8684999999999999E-2</v>
+      </c>
+      <c r="M10" t="s">
+        <v>102</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J11" s="5">
-        <v>4.4630999999999997E-2</v>
+        <v>1.8395999999999999E-2</v>
       </c>
       <c r="K11" s="5">
-        <v>3.2968999999999998E-2</v>
+        <v>1.3587E-2</v>
       </c>
       <c r="L11" s="5">
-        <v>2.8684999999999999E-2</v>
+        <v>1.1821E-2</v>
       </c>
       <c r="M11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1304,41 +1211,31 @@
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="5">
-        <v>1.8395999999999999E-2</v>
-      </c>
-      <c r="K12" s="5">
-        <v>1.3587E-2</v>
-      </c>
-      <c r="L12" s="5">
-        <v>1.1821E-2</v>
-      </c>
-      <c r="M12" t="s">
-        <v>100</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>99</v>
-      </c>
+      <c r="J12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -1348,20 +1245,22 @@
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>6</v>
@@ -1382,22 +1281,20 @@
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>6</v>
@@ -1409,13 +1306,11 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E18" s="2"/>
+    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E17" s="2"/>
     </row>
     <row r="19" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E19" s="2"/>
@@ -1439,16 +1334,13 @@
     <hyperlink ref="N3" r:id="rId2" xr:uid="{A28805F5-5B9C-463A-811B-D6E011DFA96B}"/>
     <hyperlink ref="N4" r:id="rId3" xr:uid="{735DFC04-AE94-4A07-BEEE-CDFDAE8357EA}"/>
     <hyperlink ref="N5" r:id="rId4" xr:uid="{F1CE8245-B408-44C6-9411-790B1F0CF912}"/>
-    <hyperlink ref="N8" r:id="rId5" xr:uid="{2BED6A16-84C1-4D0A-B9C0-17C80D7B3182}"/>
-    <hyperlink ref="N9" r:id="rId6" xr:uid="{5EC48A32-958B-4EB4-903E-197000A33F81}"/>
-    <hyperlink ref="N12" r:id="rId7" xr:uid="{0F9A2C40-7734-4C37-A2B0-E41B97D416B5}"/>
-    <hyperlink ref="N11" r:id="rId8" xr:uid="{FFC3D78F-0C4A-42C3-A9FC-F15E022A4B55}"/>
+    <hyperlink ref="N7" r:id="rId5" xr:uid="{2BED6A16-84C1-4D0A-B9C0-17C80D7B3182}"/>
+    <hyperlink ref="N8" r:id="rId6" xr:uid="{5EC48A32-958B-4EB4-903E-197000A33F81}"/>
+    <hyperlink ref="N11" r:id="rId7" xr:uid="{0F9A2C40-7734-4C37-A2B0-E41B97D416B5}"/>
+    <hyperlink ref="N10" r:id="rId8" xr:uid="{FFC3D78F-0C4A-42C3-A9FC-F15E022A4B55}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
-  <tableParts count="1">
-    <tablePart r:id="rId10"/>
-  </tableParts>
 </worksheet>
 </file>
 

--- a/CatchTheLightV2.xlsx
+++ b/CatchTheLightV2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\ECE388_CatchTheLightV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{2044A8AB-4FA8-4348-AFED-FA4FE04EFD10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C62688-3FC0-4328-A899-80C878EC62C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!$A$1:$J$11</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="102">
   <si>
     <t>Qty</t>
   </si>
@@ -61,18 +60,6 @@
     <t/>
   </si>
   <si>
-    <t>BUTTON_PASSIVE12MM</t>
-  </si>
-  <si>
-    <t>BUTTON_PASSIVE_12MM</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>Button, Passive Capacitive/Touch Sensing Type</t>
-  </si>
-  <si>
     <t>TS-1102S-C-A-B</t>
   </si>
   <si>
@@ -353,6 +340,9 @@
   </si>
   <si>
     <t>U$3</t>
+  </si>
+  <si>
+    <t>http://www.reekart.com/products/30-Surface-Mount-Precision-Metal-Stamping-CR2032-Coin-Cell-Battery-Holder-For-MPD-BC-2003-Replacment.html</t>
   </si>
 </sst>
 </file>
@@ -698,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B71F7FE-3F57-4414-A304-E882D02B622A}">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,10 +730,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -752,34 +742,34 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>50</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>51</v>
       </c>
-      <c r="L1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>54</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>55</v>
       </c>
-      <c r="P1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>59</v>
-      </c>
       <c r="R1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -787,13 +777,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2">
         <v>0.05</v>
@@ -802,10 +792,10 @@
         <v>0.125</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>6</v>
@@ -820,10 +810,10 @@
         <v>5.4100000000000003E-4</v>
       </c>
       <c r="M2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -835,13 +825,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2">
         <v>0.05</v>
@@ -850,10 +840,10 @@
         <v>0.125</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>6</v>
@@ -868,10 +858,10 @@
         <v>6.5499999999999998E-4</v>
       </c>
       <c r="M3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -883,23 +873,23 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2">
         <v>0.05</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>6</v>
@@ -914,10 +904,10 @@
         <v>5.5459999999999997E-3</v>
       </c>
       <c r="M4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -929,13 +919,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2">
         <v>0.05</v>
@@ -944,10 +934,10 @@
         <v>0.125</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>6</v>
@@ -962,10 +952,10 @@
         <v>1.1130000000000001E-3</v>
       </c>
       <c r="M5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -978,15 +968,15 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>6</v>
@@ -1005,7 +995,7 @@
         <v>1.33</v>
       </c>
       <c r="P6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -1015,21 +1005,21 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>6</v>
@@ -1044,10 +1034,10 @@
         <v>4.0591000000000002E-2</v>
       </c>
       <c r="M7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -1059,21 +1049,21 @@
         <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>6</v>
@@ -1088,10 +1078,10 @@
         <v>9.417E-3</v>
       </c>
       <c r="M8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -1103,22 +1093,22 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q9" s="1">
         <v>0.1162</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1127,18 +1117,18 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>6</v>
@@ -1153,10 +1143,10 @@
         <v>2.8684999999999999E-2</v>
       </c>
       <c r="M10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1171,18 +1161,18 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>6</v>
@@ -1197,10 +1187,10 @@
         <v>1.1821E-2</v>
       </c>
       <c r="M11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1213,18 +1203,18 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>6</v>
@@ -1236,31 +1226,29 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
+      <c r="R12" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>6</v>
@@ -1277,40 +1265,11 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E17" s="2"/>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E19" s="2"/>
@@ -1318,14 +1277,11 @@
     <row r="20" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E21" s="2"/>
+    <row r="23" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="N23" s="4"/>
     </row>
     <row r="24" spans="5:14" x14ac:dyDescent="0.25">
       <c r="N24" s="4"/>
-    </row>
-    <row r="25" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="N25" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1368,10 +1324,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1380,40 +1336,40 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>50</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>51</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>52</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>53</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>54</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>55</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>56</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1" t="s">
-        <v>58</v>
-      </c>
-      <c r="S1" t="s">
-        <v>59</v>
-      </c>
-      <c r="T1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -1424,31 +1380,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2">
         <v>0.01</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K2">
         <v>7.4200000000000004E-4</v>
       </c>
       <c r="M2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="N2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -1456,34 +1412,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2">
         <v>0.01</v>
       </c>
       <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
         <v>61</v>
       </c>
-      <c r="G3" t="s">
-        <v>65</v>
-      </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K3">
         <v>9.5200000000000005E-4</v>
       </c>
       <c r="M3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -1491,31 +1447,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2">
         <v>0.01</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K4">
         <v>5.9569999999999996E-3</v>
       </c>
       <c r="M4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -1526,31 +1482,31 @@
         <v>220</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2">
         <v>0.01</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K5">
         <v>2.8E-3</v>
       </c>
       <c r="M5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -1558,34 +1514,34 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2">
         <v>0.01</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K6">
         <v>1.5E-3</v>
       </c>
       <c r="M6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -1596,31 +1552,31 @@
         <v>330</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E7" s="2">
         <v>0.01</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K7">
         <v>1.5E-3</v>
       </c>
       <c r="M7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -1628,16 +1584,16 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O8">
         <v>1.33</v>
@@ -1646,7 +1602,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="R8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -1654,19 +1610,19 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O9">
         <v>0.28999999999999998</v>
@@ -1675,7 +1631,7 @@
         <v>0.24</v>
       </c>
       <c r="R9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -1683,28 +1639,28 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
         <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" t="s">
-        <v>37</v>
       </c>
       <c r="K10">
         <v>0.02</v>
       </c>
       <c r="M10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1712,28 +1668,28 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K11">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="M11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -1741,22 +1697,22 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="S12">
         <v>0.1162</v>
       </c>
       <c r="T12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
